--- a/public/instructivo/Instructivo_Carga_Data_Titulados.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Titulados.xlsx
@@ -498,12 +498,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Titulado sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Titulado en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -565,6 +559,12 @@
   <si>
     <t>Error en la Columna IDIOMA:
 El código del Idioma no corresponde a los valores posibles de ser consignados (1: Inglés, 2: Italiano, 3: Francés, 4: Alemán, 5: Quechua, 6: Portugués). Corrija la Columna P, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Titulado sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1283,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>33</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>38</v>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>63</v>
@@ -1577,7 +1577,7 @@
         <v>49</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1588,7 +1588,7 @@
         <v>109</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>24</v>
@@ -1617,7 +1617,7 @@
         <v>110</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>24</v>
@@ -1635,7 +1635,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1646,7 +1646,7 @@
         <v>112</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>24</v>
@@ -1658,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>61</v>
@@ -1675,7 +1675,7 @@
         <v>114</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>24</v>
@@ -1704,7 +1704,7 @@
         <v>117</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>24</v>
@@ -1733,7 +1733,7 @@
         <v>120</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>24</v>
@@ -1762,7 +1762,7 @@
         <v>123</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>24</v>
@@ -1791,7 +1791,7 @@
         <v>126</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>24</v>
@@ -1933,10 +1933,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>24</v>
@@ -1954,7 +1954,7 @@
         <v>81</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1965,7 +1965,7 @@
         <v>132</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>24</v>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>21</v>
